--- a/biology/Botanique/Violette_à_deux_fleurs/Violette_à_deux_fleurs.xlsx
+++ b/biology/Botanique/Violette_à_deux_fleurs/Violette_à_deux_fleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Violette_%C3%A0_deux_fleurs</t>
+          <t>Violette_à_deux_fleurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viola biflora
 La pensée à deux fleurs (Viola biflora) est une espèce de plantes herbacées de la famille des Violacées qui pousse en Europe, en Sibérie, en Asie centrale, en Corée et dans l'ouest de l'Amérique du nord.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Violette_%C3%A0_deux_fleurs</t>
+          <t>Violette_à_deux_fleurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En toute logique, les fleurs de la pensée à deux fleurs sont souvent groupées par deux.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Violette_%C3%A0_deux_fleurs</t>
+          <t>Violette_à_deux_fleurs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : fleur solitaire latérale
